--- a/Data_S1.xlsx
+++ b/Data_S1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Writing\Paper1_comp_microbes\SubmissionRound2\iScience\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Writing\Paper1_comp_microbes\SubmissionRound2\iScience\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08AAAD7-4310-43C3-8BE3-AD0BD8EEDFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2136DFBF-BE17-4A26-A460-0C921819BDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="10" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="22" r:id="rId1"/>
@@ -4940,70 +4940,6 @@
   </si>
   <si>
     <r>
-      <t>samtools</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>5,6</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Blast</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>BioPython</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>8</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>MotifMaker</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>9</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">COG categorization of the genomes of the following microbes: </t>
     </r>
     <r>
@@ -5503,6 +5439,70 @@
   </si>
   <si>
     <t>Citation</t>
+  </si>
+  <si>
+    <r>
+      <t>samtools</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4,5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Blast</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BioPython</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MotifMaker</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -6382,7 +6382,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -6691,7 +6691,6 @@
     <xf numFmtId="0" fontId="0" fillId="73" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -6702,7 +6701,7 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6819,7 +6818,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="COG_DH"/>
@@ -7817,7 +7816,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="COG_DH"/>
@@ -9142,7 +9141,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9180,7 +9179,7 @@
         <v>367</v>
       </c>
       <c r="B4" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -9192,7 +9191,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="108" t="s">
+      <c r="A6" t="s">
         <v>369</v>
       </c>
       <c r="B6" t="s">
@@ -9220,7 +9219,7 @@
         <v>372</v>
       </c>
       <c r="B9" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -9292,7 +9291,7 @@
         <v>975</v>
       </c>
       <c r="B18" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -9486,26 +9485,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="138" t="s">
         <v>576</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="113"/>
-      <c r="J1" s="139" t="s">
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="112"/>
+      <c r="J1" s="138" t="s">
         <v>577</v>
       </c>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="139"/>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
     </row>
     <row r="2" spans="1:17" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -9564,7 +9563,7 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="109" t="s">
+      <c r="C3" s="108" t="s">
         <v>1035</v>
       </c>
       <c r="D3" s="5">
@@ -9588,7 +9587,7 @@
       <c r="K3" s="5">
         <v>1</v>
       </c>
-      <c r="L3" s="111" t="s">
+      <c r="L3" s="110" t="s">
         <v>572</v>
       </c>
       <c r="M3" s="5">
@@ -9597,7 +9596,7 @@
       <c r="N3" s="5">
         <v>0.1</v>
       </c>
-      <c r="O3" s="109" t="s">
+      <c r="O3" s="108" t="s">
         <v>1036</v>
       </c>
       <c r="P3" s="5">
@@ -9638,7 +9637,7 @@
       <c r="K4" s="5">
         <v>20</v>
       </c>
-      <c r="L4" s="112">
+      <c r="L4" s="111">
         <v>39</v>
       </c>
       <c r="M4" s="5">
@@ -9688,7 +9687,7 @@
       <c r="K5" s="5">
         <v>0</v>
       </c>
-      <c r="L5" s="112">
+      <c r="L5" s="111">
         <v>0</v>
       </c>
       <c r="M5" s="5">
@@ -9738,7 +9737,7 @@
       <c r="K6" s="5">
         <v>0</v>
       </c>
-      <c r="L6" s="112">
+      <c r="L6" s="111">
         <v>20</v>
       </c>
       <c r="M6" s="5">
@@ -9899,230 +9898,230 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="113" t="s">
         <v>312</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="114" t="s">
         <v>578</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="114" t="s">
         <v>579</v>
       </c>
-      <c r="D1" s="115" t="s">
+      <c r="D1" s="114" t="s">
         <v>580</v>
       </c>
-      <c r="E1" s="115" t="s">
+      <c r="E1" s="114" t="s">
         <v>581</v>
       </c>
-      <c r="F1" s="115" t="s">
+      <c r="F1" s="114" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="139" t="s">
         <v>583</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="115" t="s">
         <v>584</v>
       </c>
-      <c r="C2" s="116">
+      <c r="C2" s="115">
         <v>2</v>
       </c>
-      <c r="D2" s="116">
+      <c r="D2" s="115">
         <v>98</v>
       </c>
-      <c r="E2" s="143" t="s">
+      <c r="E2" s="142" t="s">
         <v>352</v>
       </c>
-      <c r="F2" s="146" t="s">
+      <c r="F2" s="145" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="141"/>
-      <c r="B3" s="116" t="s">
+      <c r="A3" s="140"/>
+      <c r="B3" s="115" t="s">
         <v>585</v>
       </c>
-      <c r="C3" s="116">
+      <c r="C3" s="115">
         <v>2</v>
       </c>
-      <c r="D3" s="116">
+      <c r="D3" s="115">
         <v>98</v>
       </c>
-      <c r="E3" s="144"/>
-      <c r="F3" s="147"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="146"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="141"/>
-      <c r="B4" s="116" t="s">
+      <c r="A4" s="140"/>
+      <c r="B4" s="115" t="s">
         <v>586</v>
       </c>
-      <c r="C4" s="116">
+      <c r="C4" s="115">
         <v>3</v>
       </c>
-      <c r="D4" s="116">
+      <c r="D4" s="115">
         <v>97</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="147"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="146"/>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="142"/>
-      <c r="B5" s="117" t="s">
+      <c r="A5" s="141"/>
+      <c r="B5" s="116" t="s">
         <v>587</v>
       </c>
-      <c r="C5" s="117">
+      <c r="C5" s="116">
         <v>2</v>
       </c>
-      <c r="D5" s="117">
+      <c r="D5" s="116">
         <v>98</v>
       </c>
-      <c r="E5" s="145"/>
-      <c r="F5" s="148"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="147"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="140" t="s">
+      <c r="A6" s="139" t="s">
         <v>588</v>
       </c>
-      <c r="B6" s="116" t="s">
+      <c r="B6" s="115" t="s">
         <v>589</v>
       </c>
-      <c r="C6" s="116">
+      <c r="C6" s="115">
         <v>24</v>
       </c>
-      <c r="D6" s="116">
+      <c r="D6" s="115">
         <v>81</v>
       </c>
-      <c r="E6" s="116">
+      <c r="E6" s="115">
         <v>350</v>
       </c>
-      <c r="F6" s="116">
+      <c r="F6" s="115">
         <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="141"/>
-      <c r="B7" s="116" t="s">
+      <c r="A7" s="140"/>
+      <c r="B7" s="115" t="s">
         <v>590</v>
       </c>
-      <c r="C7" s="116">
+      <c r="C7" s="115">
         <v>17</v>
       </c>
-      <c r="D7" s="116">
+      <c r="D7" s="115">
         <v>85</v>
       </c>
-      <c r="E7" s="116">
+      <c r="E7" s="115">
         <v>360</v>
       </c>
-      <c r="F7" s="116">
+      <c r="F7" s="115">
         <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="141"/>
-      <c r="B8" s="116" t="s">
+      <c r="A8" s="140"/>
+      <c r="B8" s="115" t="s">
         <v>591</v>
       </c>
-      <c r="C8" s="116">
+      <c r="C8" s="115">
         <v>24</v>
       </c>
-      <c r="D8" s="116">
+      <c r="D8" s="115">
         <v>81</v>
       </c>
-      <c r="E8" s="116">
+      <c r="E8" s="115">
         <v>350</v>
       </c>
-      <c r="F8" s="116">
+      <c r="F8" s="115">
         <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="141"/>
-      <c r="B9" s="116" t="s">
+      <c r="A9" s="140"/>
+      <c r="B9" s="115" t="s">
         <v>592</v>
       </c>
-      <c r="C9" s="116">
+      <c r="C9" s="115">
         <v>19</v>
       </c>
-      <c r="D9" s="116">
+      <c r="D9" s="115">
         <v>84</v>
       </c>
-      <c r="E9" s="116">
+      <c r="E9" s="115">
         <v>360</v>
       </c>
-      <c r="F9" s="116">
+      <c r="F9" s="115">
         <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="141"/>
-      <c r="B10" s="116" t="s">
+      <c r="A10" s="140"/>
+      <c r="B10" s="115" t="s">
         <v>593</v>
       </c>
-      <c r="C10" s="116">
+      <c r="C10" s="115">
         <v>22</v>
       </c>
-      <c r="D10" s="116">
+      <c r="D10" s="115">
         <v>82</v>
       </c>
-      <c r="E10" s="116">
+      <c r="E10" s="115">
         <v>360</v>
       </c>
-      <c r="F10" s="116">
+      <c r="F10" s="115">
         <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="141"/>
-      <c r="B11" s="116" t="s">
+      <c r="A11" s="140"/>
+      <c r="B11" s="115" t="s">
         <v>594</v>
       </c>
-      <c r="C11" s="116">
+      <c r="C11" s="115">
         <v>25</v>
       </c>
-      <c r="D11" s="116">
+      <c r="D11" s="115">
         <v>80</v>
       </c>
-      <c r="E11" s="116">
+      <c r="E11" s="115">
         <v>350</v>
       </c>
-      <c r="F11" s="116">
+      <c r="F11" s="115">
         <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="141"/>
-      <c r="B12" s="116" t="s">
+      <c r="A12" s="140"/>
+      <c r="B12" s="115" t="s">
         <v>595</v>
       </c>
-      <c r="C12" s="116">
+      <c r="C12" s="115">
         <v>19</v>
       </c>
-      <c r="D12" s="116">
+      <c r="D12" s="115">
         <v>84</v>
       </c>
-      <c r="E12" s="116">
+      <c r="E12" s="115">
         <v>360</v>
       </c>
-      <c r="F12" s="116">
+      <c r="F12" s="115">
         <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="142"/>
-      <c r="B13" s="117" t="s">
+      <c r="A13" s="141"/>
+      <c r="B13" s="116" t="s">
         <v>596</v>
       </c>
-      <c r="C13" s="117">
+      <c r="C13" s="116">
         <v>25</v>
       </c>
-      <c r="D13" s="117">
+      <c r="D13" s="116">
         <v>80</v>
       </c>
-      <c r="E13" s="117">
+      <c r="E13" s="116">
         <v>350</v>
       </c>
-      <c r="F13" s="117">
+      <c r="F13" s="116">
         <v>279</v>
       </c>
     </row>
@@ -10130,11 +10129,11 @@
       <c r="A14" t="s">
         <v>597</v>
       </c>
-      <c r="C14" s="118">
+      <c r="C14" s="117">
         <f>AVERAGE(C6:C13)</f>
         <v>21.875</v>
       </c>
-      <c r="F14" s="118">
+      <c r="F14" s="117">
         <f>AVERAGE(F6:F13)</f>
         <v>291.375</v>
       </c>
@@ -10143,11 +10142,11 @@
       <c r="A15" t="s">
         <v>598</v>
       </c>
-      <c r="C15" s="118">
+      <c r="C15" s="117">
         <f>_xlfn.STDEV.P(C6:C13)</f>
         <v>2.9341736485763756</v>
       </c>
-      <c r="F15" s="118">
+      <c r="F15" s="117">
         <f>_xlfn.STDEV.P(F6:F13)</f>
         <v>10.546770832818925</v>
       </c>
@@ -10202,10 +10201,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="126" t="s">
         <v>990</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="127" t="s">
         <v>991</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -10222,82 +10221,82 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="60.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="128" t="s">
         <v>996</v>
       </c>
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="128" t="s">
         <v>997</v>
       </c>
-      <c r="C3" s="131" t="s">
+      <c r="C3" s="130" t="s">
         <v>1008</v>
       </c>
-      <c r="D3" s="130" t="s">
+      <c r="D3" s="129" t="s">
         <v>998</v>
       </c>
-      <c r="E3" s="130" t="s">
+      <c r="E3" s="129" t="s">
         <v>999</v>
       </c>
-      <c r="F3" s="130" t="s">
+      <c r="F3" s="129" t="s">
         <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="60.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="129" t="s">
+      <c r="A4" s="128" t="s">
         <v>1001</v>
       </c>
-      <c r="B4" s="129" t="s">
+      <c r="B4" s="128" t="s">
         <v>997</v>
       </c>
-      <c r="C4" s="131" t="s">
+      <c r="C4" s="130" t="s">
         <v>1008</v>
       </c>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="129" t="s">
         <v>998</v>
       </c>
-      <c r="E4" s="130" t="s">
+      <c r="E4" s="129" t="s">
         <v>999</v>
       </c>
-      <c r="F4" s="130" t="s">
+      <c r="F4" s="129" t="s">
         <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="129" t="s">
+      <c r="A5" s="128" t="s">
         <v>1002</v>
       </c>
-      <c r="B5" s="129" t="s">
+      <c r="B5" s="128" t="s">
         <v>1003</v>
       </c>
-      <c r="C5" s="131" t="s">
+      <c r="C5" s="130" t="s">
         <v>1008</v>
       </c>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="129" t="s">
         <v>1004</v>
       </c>
-      <c r="E5" s="130" t="s">
+      <c r="E5" s="129" t="s">
         <v>1005</v>
       </c>
-      <c r="F5" s="130" t="s">
+      <c r="F5" s="129" t="s">
         <v>1006</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="132" t="s">
+      <c r="A6" s="131" t="s">
         <v>1007</v>
       </c>
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="131" t="s">
         <v>1003</v>
       </c>
-      <c r="C6" s="131" t="s">
+      <c r="C6" s="130" t="s">
         <v>1008</v>
       </c>
-      <c r="D6" s="131" t="s">
+      <c r="D6" s="130" t="s">
         <v>1004</v>
       </c>
-      <c r="E6" s="131" t="s">
+      <c r="E6" s="130" t="s">
         <v>1005</v>
       </c>
-      <c r="F6" s="131" t="s">
+      <c r="F6" s="130" t="s">
         <v>1006</v>
       </c>
     </row>
@@ -10508,7 +10507,7 @@
     <row r="1" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="90"/>
       <c r="B1" s="7" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1011</v>
@@ -10755,7 +10754,7 @@
     </row>
     <row r="17" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A17" s="103" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10769,7 +10768,7 @@
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A20" s="122" t="s">
+      <c r="A20" s="121" t="s">
         <v>608</v>
       </c>
     </row>
@@ -10809,7 +10808,7 @@
     </row>
     <row r="2" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="B2" s="14">
         <v>0.2</v>
@@ -10845,7 +10844,7 @@
     </row>
     <row r="6" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="103" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -10877,27 +10876,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="132" t="s">
         <v>406</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133" t="s">
+      <c r="C1" s="132"/>
+      <c r="D1" s="132" t="s">
         <v>427</v>
       </c>
-      <c r="E1" s="133"/>
+      <c r="E1" s="132"/>
     </row>
     <row r="2" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="102" t="s">
         <v>428</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>1046</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>1046</v>
@@ -12567,7 +12566,7 @@
     </row>
     <row r="83" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A83" s="103" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -12606,7 +12605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -12614,10 +12613,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -12922,7 +12921,7 @@
       <c r="H5" t="s">
         <v>333</v>
       </c>
-      <c r="I5" s="123" t="s">
+      <c r="I5" s="122" t="s">
         <v>436</v>
       </c>
     </row>
@@ -12948,7 +12947,7 @@
       <c r="H6" t="s">
         <v>333</v>
       </c>
-      <c r="I6" s="123" t="s">
+      <c r="I6" s="122" t="s">
         <v>436</v>
       </c>
     </row>
@@ -12974,7 +12973,7 @@
       <c r="H7" t="s">
         <v>336</v>
       </c>
-      <c r="I7" s="123" t="s">
+      <c r="I7" s="122" t="s">
         <v>972</v>
       </c>
     </row>
@@ -13171,7 +13170,7 @@
         <v>21</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>1011</v>
@@ -13682,7 +13681,7 @@
     </row>
     <row r="28" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A28" s="103" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -13702,7 +13701,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:M159"/>
+  <dimension ref="A1:M158"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="B98" sqref="B98:B154"/>
@@ -13724,22 +13723,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="132" t="s">
         <v>437</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="H1" s="133" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="H1" s="132" t="s">
         <v>438</v>
       </c>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
     </row>
     <row r="2" spans="1:13" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="104" t="s">
@@ -13781,10 +13780,10 @@
     </row>
     <row r="3" spans="1:13" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B3" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C3" s="105" t="s">
         <v>1019</v>
@@ -13819,10 +13818,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B4" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C4" s="105" t="s">
         <v>442</v>
@@ -13857,10 +13856,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B5" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C5" s="105" t="s">
         <v>442</v>
@@ -13895,10 +13894,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B6" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C6" s="105" t="s">
         <v>442</v>
@@ -13933,10 +13932,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B7" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C7" s="105" t="s">
         <v>442</v>
@@ -13971,10 +13970,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B8" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C8" s="105" t="s">
         <v>442</v>
@@ -14009,10 +14008,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B9" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C9" s="105" t="s">
         <v>442</v>
@@ -14047,10 +14046,10 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B10" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C10" s="105" t="s">
         <v>442</v>
@@ -14085,10 +14084,10 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B11" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C11" s="105" t="s">
         <v>442</v>
@@ -14123,10 +14122,10 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B12" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C12" s="105" t="s">
         <v>442</v>
@@ -14161,10 +14160,10 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B13" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C13" s="105" t="s">
         <v>442</v>
@@ -14199,10 +14198,10 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B14" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C14" s="105" t="s">
         <v>442</v>
@@ -14237,10 +14236,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B15" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C15" s="105" t="s">
         <v>442</v>
@@ -14275,10 +14274,10 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B16" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C16" s="105" t="s">
         <v>442</v>
@@ -14313,10 +14312,10 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B17" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C17" s="105" t="s">
         <v>442</v>
@@ -14351,10 +14350,10 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B18" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C18" s="105" t="s">
         <v>442</v>
@@ -14389,10 +14388,10 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B19" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C19" s="105" t="s">
         <v>442</v>
@@ -14427,10 +14426,10 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B20" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C20" s="105" t="s">
         <v>442</v>
@@ -14465,10 +14464,10 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B21" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C21" s="105" t="s">
         <v>442</v>
@@ -14503,10 +14502,10 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B22" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C22" s="105" t="s">
         <v>442</v>
@@ -14541,10 +14540,10 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B23" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C23" s="105" t="s">
         <v>442</v>
@@ -14579,10 +14578,10 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B24" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C24" s="105" t="s">
         <v>442</v>
@@ -14617,10 +14616,10 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B25" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C25" s="105" t="s">
         <v>442</v>
@@ -14655,10 +14654,10 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B26" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C26" s="105" t="s">
         <v>442</v>
@@ -14693,10 +14692,10 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B27" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C27" s="105" t="s">
         <v>442</v>
@@ -14731,10 +14730,10 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B28" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C28" s="105" t="s">
         <v>442</v>
@@ -14769,10 +14768,10 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B29" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C29" s="105" t="s">
         <v>442</v>
@@ -14807,10 +14806,10 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B30" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C30" s="105" t="s">
         <v>442</v>
@@ -14845,10 +14844,10 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B31" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C31" s="105" t="s">
         <v>442</v>
@@ -14883,10 +14882,10 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B32" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C32" s="105" t="s">
         <v>442</v>
@@ -14921,10 +14920,10 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B33" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C33" s="105" t="s">
         <v>442</v>
@@ -14959,10 +14958,10 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B34" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C34" s="105" t="s">
         <v>442</v>
@@ -14997,10 +14996,10 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B35" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C35" s="105" t="s">
         <v>442</v>
@@ -15035,10 +15034,10 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B36" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C36" s="105" t="s">
         <v>442</v>
@@ -15073,10 +15072,10 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B37" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C37" s="105" t="s">
         <v>442</v>
@@ -15111,10 +15110,10 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B38" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C38" s="105" t="s">
         <v>442</v>
@@ -15149,10 +15148,10 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B39" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C39" s="105" t="s">
         <v>442</v>
@@ -15187,10 +15186,10 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B40" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C40" s="105" t="s">
         <v>442</v>
@@ -15225,10 +15224,10 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B41" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C41" s="105" t="s">
         <v>442</v>
@@ -15263,10 +15262,10 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B42" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C42" s="105" t="s">
         <v>442</v>
@@ -15301,10 +15300,10 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B43" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C43" s="105" t="s">
         <v>442</v>
@@ -15339,10 +15338,10 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B44" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C44" s="105" t="s">
         <v>442</v>
@@ -15377,10 +15376,10 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B45" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C45" s="105" t="s">
         <v>442</v>
@@ -15415,10 +15414,10 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B46" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C46" s="105" t="s">
         <v>442</v>
@@ -15453,10 +15452,10 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B47" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C47" s="105" t="s">
         <v>442</v>
@@ -15491,10 +15490,10 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B48" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C48" s="105" t="s">
         <v>442</v>
@@ -15529,10 +15528,10 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B49" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C49" s="105" t="s">
         <v>442</v>
@@ -15567,10 +15566,10 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B50" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C50" s="105" t="s">
         <v>442</v>
@@ -15605,10 +15604,10 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B51" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C51" s="105" t="s">
         <v>442</v>
@@ -15643,10 +15642,10 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B52" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C52" s="105" t="s">
         <v>442</v>
@@ -15681,10 +15680,10 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B53" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C53" s="105" t="s">
         <v>442</v>
@@ -15719,10 +15718,10 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B54" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C54" s="105" t="s">
         <v>442</v>
@@ -15757,10 +15756,10 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B55" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C55" s="105" t="s">
         <v>442</v>
@@ -15795,10 +15794,10 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B56" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C56" s="105" t="s">
         <v>442</v>
@@ -15833,10 +15832,10 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B57" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C57" s="105" t="s">
         <v>442</v>
@@ -15871,10 +15870,10 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B58" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C58" s="105" t="s">
         <v>442</v>
@@ -15909,10 +15908,10 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B59" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C59" s="105" t="s">
         <v>442</v>
@@ -15947,10 +15946,10 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B60" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C60" s="105" t="s">
         <v>442</v>
@@ -15985,10 +15984,10 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B61" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C61" s="105" t="s">
         <v>442</v>
@@ -16023,10 +16022,10 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B62" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C62" s="105" t="s">
         <v>442</v>
@@ -16061,10 +16060,10 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B63" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C63" s="105" t="s">
         <v>442</v>
@@ -16099,10 +16098,10 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B64" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C64" s="105" t="s">
         <v>442</v>
@@ -16137,10 +16136,10 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B65" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C65" s="105" t="s">
         <v>442</v>
@@ -16175,10 +16174,10 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B66" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C66" s="105" t="s">
         <v>442</v>
@@ -16213,10 +16212,10 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B67" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C67" s="105" t="s">
         <v>442</v>
@@ -16251,10 +16250,10 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B68" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C68" s="105" t="s">
         <v>442</v>
@@ -16289,10 +16288,10 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B69" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C69" s="105" t="s">
         <v>442</v>
@@ -16327,10 +16326,10 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B70" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C70" s="105" t="s">
         <v>442</v>
@@ -16365,10 +16364,10 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B71" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C71" s="105" t="s">
         <v>442</v>
@@ -16403,10 +16402,10 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B72" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C72" s="105" t="s">
         <v>442</v>
@@ -16441,10 +16440,10 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B73" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C73" s="105" t="s">
         <v>442</v>
@@ -16479,10 +16478,10 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B74" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C74" s="105" t="s">
         <v>442</v>
@@ -16499,10 +16498,10 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B75" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C75" s="105" t="s">
         <v>442</v>
@@ -16519,10 +16518,10 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B76" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C76" s="105" t="s">
         <v>442</v>
@@ -16539,10 +16538,10 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B77" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C77" s="105" t="s">
         <v>442</v>
@@ -16559,10 +16558,10 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B78" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C78" s="105" t="s">
         <v>442</v>
@@ -16579,10 +16578,10 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B79" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C79" s="105" t="s">
         <v>442</v>
@@ -16599,10 +16598,10 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B80" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C80" s="105" t="s">
         <v>442</v>
@@ -16619,10 +16618,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B81" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C81" s="105" t="s">
         <v>442</v>
@@ -16639,10 +16638,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B82" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C82" s="105" t="s">
         <v>442</v>
@@ -16659,10 +16658,10 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B83" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C83" s="105" t="s">
         <v>442</v>
@@ -16679,10 +16678,10 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B84" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C84" s="105" t="s">
         <v>442</v>
@@ -16699,10 +16698,10 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B85" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C85" s="105" t="s">
         <v>442</v>
@@ -16719,10 +16718,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B86" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C86" s="105" t="s">
         <v>442</v>
@@ -16739,10 +16738,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B87" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C87" s="105" t="s">
         <v>442</v>
@@ -16759,10 +16758,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B88" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C88" s="105" t="s">
         <v>442</v>
@@ -16779,10 +16778,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B89" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C89" s="105" t="s">
         <v>442</v>
@@ -16799,10 +16798,10 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B90" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C90" s="105" t="s">
         <v>442</v>
@@ -16819,10 +16818,10 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B91" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C91" s="105" t="s">
         <v>442</v>
@@ -16839,10 +16838,10 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B92" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C92" s="105" t="s">
         <v>442</v>
@@ -16859,10 +16858,10 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B93" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C93" s="105" t="s">
         <v>442</v>
@@ -16879,10 +16878,10 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B94" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C94" s="105" t="s">
         <v>442</v>
@@ -16899,10 +16898,10 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B95" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C95" s="105" t="s">
         <v>442</v>
@@ -16919,10 +16918,10 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B96" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C96" s="105" t="s">
         <v>442</v>
@@ -16939,10 +16938,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="105" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B97" s="105" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C97" s="105" t="s">
         <v>442</v>
@@ -16959,10 +16958,10 @@
     </row>
     <row r="98" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A98" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B98" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C98" s="106" t="s">
         <v>1020</v>
@@ -16979,10 +16978,10 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B99" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C99" s="106" t="s">
         <v>487</v>
@@ -16999,10 +16998,10 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B100" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C100" s="106" t="s">
         <v>487</v>
@@ -17019,10 +17018,10 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B101" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C101" s="106" t="s">
         <v>487</v>
@@ -17039,10 +17038,10 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B102" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C102" s="106" t="s">
         <v>487</v>
@@ -17059,10 +17058,10 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B103" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C103" s="106" t="s">
         <v>487</v>
@@ -17079,10 +17078,10 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B104" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C104" s="106" t="s">
         <v>487</v>
@@ -17099,10 +17098,10 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B105" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C105" s="106" t="s">
         <v>487</v>
@@ -17119,10 +17118,10 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B106" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C106" s="106" t="s">
         <v>487</v>
@@ -17139,10 +17138,10 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B107" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C107" s="106" t="s">
         <v>487</v>
@@ -17159,10 +17158,10 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B108" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C108" s="106" t="s">
         <v>487</v>
@@ -17179,10 +17178,10 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B109" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C109" s="106" t="s">
         <v>487</v>
@@ -17199,10 +17198,10 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B110" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C110" s="106" t="s">
         <v>487</v>
@@ -17219,10 +17218,10 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B111" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C111" s="106" t="s">
         <v>487</v>
@@ -17239,10 +17238,10 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B112" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C112" s="106" t="s">
         <v>487</v>
@@ -17259,10 +17258,10 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B113" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C113" s="106" t="s">
         <v>487</v>
@@ -17279,10 +17278,10 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B114" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C114" s="106" t="s">
         <v>487</v>
@@ -17299,10 +17298,10 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B115" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C115" s="106" t="s">
         <v>487</v>
@@ -17319,10 +17318,10 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B116" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C116" s="106" t="s">
         <v>487</v>
@@ -17339,10 +17338,10 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B117" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C117" s="106" t="s">
         <v>487</v>
@@ -17359,10 +17358,10 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B118" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C118" s="106" t="s">
         <v>487</v>
@@ -17379,10 +17378,10 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B119" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C119" s="106" t="s">
         <v>487</v>
@@ -17399,10 +17398,10 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B120" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C120" s="106" t="s">
         <v>487</v>
@@ -17419,10 +17418,10 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B121" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C121" s="106" t="s">
         <v>487</v>
@@ -17439,10 +17438,10 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B122" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C122" s="106" t="s">
         <v>487</v>
@@ -17459,10 +17458,10 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B123" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C123" s="106" t="s">
         <v>487</v>
@@ -17479,10 +17478,10 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B124" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C124" s="106" t="s">
         <v>487</v>
@@ -17499,10 +17498,10 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B125" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C125" s="106" t="s">
         <v>487</v>
@@ -17519,10 +17518,10 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B126" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C126" s="106" t="s">
         <v>487</v>
@@ -17539,10 +17538,10 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B127" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C127" s="106" t="s">
         <v>487</v>
@@ -17559,10 +17558,10 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B128" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C128" s="106" t="s">
         <v>487</v>
@@ -17579,10 +17578,10 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B129" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C129" s="106" t="s">
         <v>487</v>
@@ -17599,10 +17598,10 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B130" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C130" s="106" t="s">
         <v>487</v>
@@ -17619,10 +17618,10 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B131" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C131" s="106" t="s">
         <v>487</v>
@@ -17639,10 +17638,10 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B132" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C132" s="106" t="s">
         <v>487</v>
@@ -17659,10 +17658,10 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B133" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C133" s="106" t="s">
         <v>487</v>
@@ -17679,10 +17678,10 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B134" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C134" s="106" t="s">
         <v>487</v>
@@ -17699,10 +17698,10 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B135" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C135" s="106" t="s">
         <v>487</v>
@@ -17719,10 +17718,10 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B136" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C136" s="106" t="s">
         <v>487</v>
@@ -17739,10 +17738,10 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B137" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C137" s="106" t="s">
         <v>487</v>
@@ -17759,10 +17758,10 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B138" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C138" s="106" t="s">
         <v>487</v>
@@ -17779,10 +17778,10 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B139" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C139" s="106" t="s">
         <v>487</v>
@@ -17799,10 +17798,10 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B140" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C140" s="106" t="s">
         <v>487</v>
@@ -17819,10 +17818,10 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B141" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C141" s="106" t="s">
         <v>487</v>
@@ -17839,10 +17838,10 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B142" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C142" s="106" t="s">
         <v>487</v>
@@ -17859,10 +17858,10 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B143" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C143" s="106" t="s">
         <v>487</v>
@@ -17879,10 +17878,10 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B144" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C144" s="106" t="s">
         <v>487</v>
@@ -17899,10 +17898,10 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B145" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C145" s="106" t="s">
         <v>487</v>
@@ -17919,10 +17918,10 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B146" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C146" s="106" t="s">
         <v>487</v>
@@ -17939,10 +17938,10 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B147" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C147" s="106" t="s">
         <v>487</v>
@@ -17959,10 +17958,10 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B148" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C148" s="106" t="s">
         <v>487</v>
@@ -17979,10 +17978,10 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B149" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C149" s="106" t="s">
         <v>487</v>
@@ -17999,10 +17998,10 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B150" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C150" s="106" t="s">
         <v>487</v>
@@ -18019,10 +18018,10 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B151" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C151" s="106" t="s">
         <v>487</v>
@@ -18039,10 +18038,10 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B152" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C152" s="106" t="s">
         <v>487</v>
@@ -18059,10 +18058,10 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B153" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C153" s="106" t="s">
         <v>487</v>
@@ -18079,10 +18078,10 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="106" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B154" s="106" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C154" s="106" t="s">
         <v>487</v>
@@ -18097,35 +18096,20 @@
         <v>490</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="108"/>
-      <c r="B155" s="108"/>
-      <c r="C155" s="108"/>
-    </row>
     <row r="156" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A156" s="108" t="s">
+      <c r="A156" t="s">
         <v>1015</v>
       </c>
-      <c r="C156" s="108"/>
     </row>
     <row r="157" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A157" s="121" t="s">
+      <c r="A157" s="120" t="s">
         <v>1016</v>
       </c>
-      <c r="B157" s="108"/>
-      <c r="C157" s="108"/>
     </row>
     <row r="158" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A158" s="120" t="s">
+      <c r="A158" s="119" t="s">
         <v>1017</v>
       </c>
-      <c r="B158" s="108"/>
-      <c r="C158" s="108"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="108"/>
-      <c r="B159" s="108"/>
-      <c r="C159" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -18162,71 +18146,71 @@
       <c r="A1" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="133" t="s">
         <v>526</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134" t="s">
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133" t="s">
         <v>529</v>
       </c>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134" t="s">
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133" t="s">
         <v>536</v>
       </c>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134" t="s">
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133" t="s">
         <v>540</v>
       </c>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
     </row>
     <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="109" t="s">
         <v>531</v>
       </c>
-      <c r="C2" s="110" t="s">
+      <c r="C2" s="109" t="s">
         <v>524</v>
       </c>
-      <c r="D2" s="110" t="s">
+      <c r="D2" s="109" t="s">
         <v>525</v>
       </c>
-      <c r="E2" s="110" t="s">
+      <c r="E2" s="109" t="s">
         <v>531</v>
       </c>
-      <c r="F2" s="110" t="s">
+      <c r="F2" s="109" t="s">
         <v>534</v>
       </c>
-      <c r="G2" s="110" t="s">
+      <c r="G2" s="109" t="s">
         <v>525</v>
       </c>
-      <c r="H2" s="110" t="s">
+      <c r="H2" s="109" t="s">
         <v>531</v>
       </c>
-      <c r="I2" s="110" t="s">
+      <c r="I2" s="109" t="s">
         <v>534</v>
       </c>
-      <c r="J2" s="110" t="s">
+      <c r="J2" s="109" t="s">
         <v>525</v>
       </c>
-      <c r="K2" s="110" t="s">
+      <c r="K2" s="109" t="s">
         <v>541</v>
       </c>
-      <c r="L2" s="110" t="s">
+      <c r="L2" s="109" t="s">
         <v>534</v>
       </c>
-      <c r="M2" s="110" t="s">
+      <c r="M2" s="109" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B3" t="s">
         <v>530</v>
@@ -18381,20 +18365,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="137"/>
-      <c r="B1" s="138"/>
-      <c r="C1" s="135" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D1" s="136"/>
-      <c r="E1" s="135" t="s">
-        <v>1068</v>
-      </c>
-      <c r="F1" s="136"/>
-      <c r="G1" s="135" t="s">
+      <c r="A1" s="136"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="134" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D1" s="135"/>
+      <c r="E1" s="134" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F1" s="135"/>
+      <c r="G1" s="134" t="s">
         <v>1021</v>
       </c>
-      <c r="H1" s="136"/>
+      <c r="H1" s="135"/>
       <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -20342,12 +20326,12 @@
     </row>
     <row r="70" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A70" s="103" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A71" s="103" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -20383,7 +20367,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1011</v>
@@ -20393,24 +20377,24 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="123" t="s">
         <v>1023</v>
       </c>
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="124" t="s">
         <v>976</v>
       </c>
-      <c r="C2" s="125" t="s">
+      <c r="C2" s="124" t="s">
         <v>979</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="123" t="s">
         <v>1024</v>
       </c>
-      <c r="B3" s="125" t="s">
+      <c r="B3" s="124" t="s">
         <v>977</v>
       </c>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="124" t="s">
         <v>980</v>
       </c>
     </row>
@@ -20427,7 +20411,7 @@
     </row>
     <row r="6" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="103" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -20441,17 +20425,17 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A9" s="126" t="s">
+      <c r="A9" s="125" t="s">
         <v>1026</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A10" s="126" t="s">
+      <c r="A10" s="125" t="s">
         <v>1027</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A11" s="126" t="s">
+      <c r="A11" s="125" t="s">
         <v>1028</v>
       </c>
     </row>
@@ -20464,8 +20448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20495,19 +20479,19 @@
         <v>353</v>
       </c>
       <c r="E1" s="97" t="s">
-        <v>1055</v>
+        <v>1074</v>
       </c>
       <c r="F1" s="97" t="s">
-        <v>1056</v>
+        <v>1075</v>
       </c>
       <c r="G1" s="97" t="s">
-        <v>1057</v>
+        <v>1076</v>
       </c>
       <c r="H1" s="97" t="s">
         <v>357</v>
       </c>
       <c r="I1" s="97" t="s">
-        <v>1058</v>
+        <v>1077</v>
       </c>
       <c r="J1" s="97" t="s">
         <v>355</v>
@@ -20517,8 +20501,8 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="45.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="119" t="s">
-        <v>1073</v>
+      <c r="A2" s="118" t="s">
+        <v>1069</v>
       </c>
       <c r="B2" s="98">
         <v>1.7</v>
@@ -20552,7 +20536,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="118" t="s">
         <v>1012</v>
       </c>
       <c r="B3" s="98">
@@ -20588,7 +20572,7 @@
     </row>
     <row r="5" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="103" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
